--- a/telegram-bot-mao/src/info_rus.xlsx
+++ b/telegram-bot-mao/src/info_rus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
   <si>
     <t>Наименование государственной услуги</t>
   </si>
@@ -500,13 +500,46 @@
   </si>
   <si>
     <t>http://adilet.zan.kz/rus/docs/V1700015846#z20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел </t>
+  </si>
+  <si>
+    <t>плюс второй раздел в котором должен отражаться</t>
+  </si>
+  <si>
+    <t>ветеринария</t>
+  </si>
+  <si>
+    <t>защита растений</t>
+  </si>
+  <si>
+    <t>растениеводство</t>
+  </si>
+  <si>
+    <t>земельные отношения</t>
+  </si>
+  <si>
+    <t>лицензирование</t>
+  </si>
+  <si>
+    <t>карантин растений</t>
+  </si>
+  <si>
+    <t>субсидирование в АПК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">животноводство </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сельскохозяйственная техника </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -569,12 +602,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -586,6 +639,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,7 +711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,9 +743,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,6 +778,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -890,21 +954,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C62"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="7" width="57.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="7" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="70.5" customHeight="1">
+    <row r="1" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,8 +978,14 @@
       <c r="C1" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="156.75" customHeight="1">
+      <c r="D1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,8 +995,11 @@
       <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="233.25" customHeight="1">
+      <c r="D2" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -936,8 +1009,11 @@
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="312" customHeight="1">
+      <c r="D3" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="312" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -947,8 +1023,11 @@
       <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="171.6">
+      <c r="D4" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -958,8 +1037,11 @@
       <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="101.25" customHeight="1">
+      <c r="D5" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -969,8 +1051,11 @@
       <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="109.2">
+      <c r="D6" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,8 +1065,11 @@
       <c r="C7" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.8">
+      <c r="D7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1079,11 @@
       <c r="C8" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.2">
+      <c r="D8" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,8 +1093,11 @@
       <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="140.4">
+      <c r="D9" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1107,11 @@
       <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="46.8">
+      <c r="D10" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,8 +1121,11 @@
       <c r="C11" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="62.4">
+      <c r="D11" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1035,8 +1135,11 @@
       <c r="C12" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="46.8">
+      <c r="D12" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,8 +1149,11 @@
       <c r="C13" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="62.4">
+      <c r="D13" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1057,8 +1163,11 @@
       <c r="C14" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="46.8">
+      <c r="D14" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1068,8 +1177,11 @@
       <c r="C15" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.2">
+      <c r="D15" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1079,8 +1191,11 @@
       <c r="C16" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="46.8">
+      <c r="D16" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1090,8 +1205,11 @@
       <c r="C17" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="31.2">
+      <c r="D17" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,8 +1219,11 @@
       <c r="C18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6">
+      <c r="D18" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,8 +1233,11 @@
       <c r="C19" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="46.8">
+      <c r="D19" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1123,8 +1247,11 @@
       <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="62.4">
+      <c r="D20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1134,8 +1261,11 @@
       <c r="C21" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
+      <c r="D21" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1145,8 +1275,11 @@
       <c r="C22" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="124.8">
+      <c r="D22" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1156,8 +1289,11 @@
       <c r="C23" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="140.4">
+      <c r="D23" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1167,8 +1303,11 @@
       <c r="C24" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="62.4">
+      <c r="D24" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1178,8 +1317,11 @@
       <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="109.2">
+      <c r="D25" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1189,8 +1331,11 @@
       <c r="C26" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="46.8">
+      <c r="D26" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1200,8 +1345,11 @@
       <c r="C27" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="78">
+      <c r="D27" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1211,8 +1359,11 @@
       <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="62.4">
+      <c r="D28" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1222,8 +1373,11 @@
       <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="62.4">
+      <c r="D29" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1233,8 +1387,11 @@
       <c r="C30" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="62.4">
+      <c r="D30" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1244,8 +1401,11 @@
       <c r="C31" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="78">
+      <c r="D31" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1255,8 +1415,11 @@
       <c r="C32" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="78">
+      <c r="D32" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1266,8 +1429,11 @@
       <c r="C33" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="46.8">
+      <c r="D33" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1277,8 +1443,11 @@
       <c r="C34" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="31.2">
+      <c r="D34" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1288,8 +1457,11 @@
       <c r="C35" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="31.2">
+      <c r="D35" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1299,8 +1471,11 @@
       <c r="C36" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="62.4">
+      <c r="D36" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1310,8 +1485,11 @@
       <c r="C37" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="62.4">
+      <c r="D37" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1321,8 +1499,11 @@
       <c r="C38" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="46.8">
+      <c r="D38" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1332,8 +1513,11 @@
       <c r="C39" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="124.8">
+      <c r="D39" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1343,8 +1527,11 @@
       <c r="C40" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.2">
+      <c r="D40" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1354,8 +1541,14 @@
       <c r="C41" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="62.4">
+      <c r="D41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1365,8 +1558,11 @@
       <c r="C42" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="93.6">
+      <c r="D42" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1376,8 +1572,14 @@
       <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="46.8">
+      <c r="D43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1387,8 +1589,14 @@
       <c r="C44" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="46.8">
+      <c r="D44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1398,8 +1606,14 @@
       <c r="C45" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="78">
+      <c r="D45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1409,8 +1623,11 @@
       <c r="C46" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="31.2">
+      <c r="D46" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1420,8 +1637,14 @@
       <c r="C47" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="31.2">
+      <c r="D47" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1431,8 +1654,11 @@
       <c r="C48" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="31.2">
+      <c r="D48" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1442,8 +1668,11 @@
       <c r="C49" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="46.8">
+      <c r="D49" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1453,8 +1682,11 @@
       <c r="C50" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="31.2">
+      <c r="D50" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1464,8 +1696,11 @@
       <c r="C51" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="46.8">
+      <c r="D51" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1475,8 +1710,11 @@
       <c r="C52" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="31.2">
+      <c r="D52" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1486,8 +1724,11 @@
       <c r="C53" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="46.8">
+      <c r="D53" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1497,8 +1738,11 @@
       <c r="C54" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="46.8">
+      <c r="D54" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1508,8 +1752,11 @@
       <c r="C55" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="46.8">
+      <c r="D55" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1519,8 +1766,11 @@
       <c r="C56" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="78">
+      <c r="D56" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1530,8 +1780,11 @@
       <c r="C57" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="78">
+      <c r="D57" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1541,8 +1794,11 @@
       <c r="C58" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="31.2">
+      <c r="D58" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1552,8 +1808,11 @@
       <c r="C59" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="31.2">
+      <c r="D59" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1563,8 +1822,11 @@
       <c r="C60" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="46.8">
+      <c r="D60" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1572,14 +1834,20 @@
       <c r="C61" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="31.2">
+      <c r="D61" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/telegram-bot-mao/src/info_rus.xlsx
+++ b/telegram-bot-mao/src/info_rus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="166">
   <si>
     <t>Наименование государственной услуги</t>
   </si>
@@ -454,9 +454,6 @@
     <t>http://egov.kz/cms/ru/services/licensing/pass414-1_msh</t>
   </si>
   <si>
-    <t>http://adilet.zan.kz/rus/docs/V1500011050</t>
-  </si>
-  <si>
     <t>http://egov.kz/cms/ru/services/land_relations/pass609_msh</t>
   </si>
   <si>
@@ -469,12 +466,6 @@
     <t>http://egov.kz/cms/ru/services/approval_documents/pass614_msh</t>
   </si>
   <si>
-    <t>http://adilet.zan.kz/rus/docs/V1500011052</t>
-  </si>
-  <si>
-    <t>http://adilet.zan.kz/rus/docs/V1500011051</t>
-  </si>
-  <si>
     <t>http://egov.kz/cms/ru/services/approval_documents/pass615_msh</t>
   </si>
   <si>
@@ -490,18 +481,6 @@
     <t>http://egov.kz/cms/ru/services/natural_resources/e_089</t>
   </si>
   <si>
-    <t>http://adilet.zan.kz/rus/docs/V1600013652</t>
-  </si>
-  <si>
-    <t>http://adilet.zan.kz/rus/docs/V1700015846#z137</t>
-  </si>
-  <si>
-    <t>http://adilet.zan.kz/rus/docs/V1700015846#z80</t>
-  </si>
-  <si>
-    <t>http://adilet.zan.kz/rus/docs/V1700015846#z20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Раздел </t>
   </si>
   <si>
@@ -533,6 +512,9 @@
   </si>
   <si>
     <t xml:space="preserve">сельскохозяйственная техника </t>
+  </si>
+  <si>
+    <t>http://adilet.zan.kz/rus/docs/V2000021366</t>
   </si>
 </sst>
 </file>
@@ -627,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -647,9 +629,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -958,8 +942,8 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,893 +963,915 @@
         <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="312" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="189" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="189" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>154</v>
+        <v>106</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>27</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1"/>
+  <sortState ref="A2:E62">
+    <sortCondition ref="D1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="C14" r:id="rId4"/>
-    <hyperlink ref="C20" r:id="rId5"/>
-    <hyperlink ref="B20" r:id="rId6"/>
-    <hyperlink ref="C26" r:id="rId7"/>
-    <hyperlink ref="C31" r:id="rId8"/>
-    <hyperlink ref="B46" r:id="rId9"/>
-    <hyperlink ref="C43" r:id="rId10"/>
-    <hyperlink ref="B55" r:id="rId11"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C51" r:id="rId5"/>
+    <hyperlink ref="B51" r:id="rId6"/>
+    <hyperlink ref="C54" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="C36" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B31" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>